--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-11_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-11_beg.xlsx
@@ -1548,7 +1548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  They're already on their way. Amiya said to tell you to "take it easy".
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  They're already on their way. Amiya said to tell you to 'take it easy'.
 </t>
   </si>
   <si>
